--- a/02_MasterWifoMannheim/99_Backup/Course150.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course150.xlsx
@@ -1,130 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159C818734F67F906" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F646BC4C-FFAB-45DD-AAB2-8910CD38C1F8}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 663 Branding and Brand Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Although brand names represent one of the most valuable (intangible) assets for a firm, creating and nurturing a strong brand poses considerable challenges. a critical management task that has both strategic and tactical elements. The concept of brand equity can provide managers with a valuable perspective and a common denominator to interpret the potential effects and trade-offs of various strategies and tactics for their brands. Brand management involves the design and implementation of marketing programs and activities to build, measure, and manage brand equity. The aim of this module is to introduce students to proven techniques and frameworks for assessing and formulating branding strategies and tactics that improve the long-term profitability of brand names. This course revolves around understanding how to develop effective branding strategies, while keeping in mind economic and psychological factors of branding.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students are able to understand and discuss the importance of branding, brand equity and brand strategies within marketing.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Stahl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., M.A. K&amp;W, LL.M.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,134 +420,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 663 Branding and Brand Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Although brand names represent one of the most valuable (intangible) assets for a firm, creating and nurturing a strong brand poses considerable challenges. a critical management task that has both strategic and tactical elements. The concept of brand equity can provide managers with a valuable perspective and a common denominator to interpret the potential effects and trade-offs of various strategies and tactics for their brands. Brand management involves the design and implementation of marketing programs and activities to build, measure, and manage brand equity. The aim of this module is to introduce students to proven techniques and frameworks for assessing and formulating branding strategies and tactics that improve the long-term profitability of brand names. This course revolves around understanding how to develop effective branding strategies, while keeping in mind economic and psychological factors of branding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students are able to understand and discuss the importance of branding, brand equity and brand strategies within marketing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Stahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., M.A. K&amp;W, LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
